--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2720.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2720.xlsx
@@ -354,7 +354,7 @@
         <v>2.400790910918801</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.360328015740045</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2720.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2720.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166357960435044</v>
+        <v>1.058311700820923</v>
       </c>
       <c r="B1">
-        <v>2.400790910918801</v>
+        <v>2.121825218200684</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.746902465820312</v>
       </c>
       <c r="D1">
-        <v>2.360328015740045</v>
+        <v>1.310323119163513</v>
       </c>
       <c r="E1">
-        <v>1.213293848442756</v>
+        <v>0.4232529699802399</v>
       </c>
     </row>
   </sheetData>
